--- a/test_data/orange_data.xlsx
+++ b/test_data/orange_data.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansar Jaha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LTS\robot_framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddEmergencyContacts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>${relationship}</t>
   </si>
@@ -50,10 +50,13 @@
     <t>brother</t>
   </si>
   <si>
-    <t>sathish</t>
-  </si>
-  <si>
-    <t>lok</t>
+    <t>john</t>
+  </si>
+  <si>
+    <t>sandy</t>
+  </si>
+  <si>
+    <t>sister</t>
   </si>
 </sst>
 </file>
@@ -374,7 +377,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>949494</v>

--- a/test_data/orange_data.xlsx
+++ b/test_data/orange_data.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddEmergencyContacts" sheetId="1" r:id="rId1"/>
+    <sheet name="AddMembership" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>${relationship}</t>
   </si>
@@ -57,6 +58,42 @@
   </si>
   <si>
     <t>sister</t>
+  </si>
+  <si>
+    <t>${username}</t>
+  </si>
+  <si>
+    <t>${password}</t>
+  </si>
+  <si>
+    <t>${membership}</t>
+  </si>
+  <si>
+    <t>${subscription_paid_by}</t>
+  </si>
+  <si>
+    <t>${subscription_amount}</t>
+  </si>
+  <si>
+    <t>${currency}</t>
+  </si>
+  <si>
+    <t>CIMA</t>
+  </si>
+  <si>
+    <t>${commence_date}</t>
+  </si>
+  <si>
+    <t>${renewal_date}</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>AUD</t>
   </si>
 </sst>
 </file>
@@ -376,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -442,4 +479,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>